--- a/biology/Microbiologie/Colpodidiidae/Colpodidiidae.xlsx
+++ b/biology/Microbiologie/Colpodidiidae/Colpodidiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Colpodidiidae sont une famille de Ciliés de la classe des Nassophorea et de l’ordre des Nassulida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Colpodidium, dérivé du grec ancien κολποδ / colpod, « courbé ; sinueux » (lui-même issu de κόλπος / kólpos, « pli ; cavité ; vallée profonde »), et du nouveau latin -idium (du grec  ειδος / eidos, « à l'aspect de »). Les noms Colpoda, Colpodea, Colpidium, Colpodidium (pour les deux derniers littéralement « ayant l'aspect d'un Colpoda »), font probablement référence au pli situé sur l'organisme où se trouve le sillon buccal [1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Colpodidium, dérivé du grec ancien κολποδ / colpod, « courbé ; sinueux » (lui-même issu de κόλπος / kólpos, « pli ; cavité ; vallée profonde »), et du nouveau latin -idium (du grec  ειδος / eidos, « à l'aspect de »). Les noms Colpoda, Colpodea, Colpidium, Colpodidium (pour les deux derniers littéralement « ayant l'aspect d'un Colpoda »), font probablement référence au pli situé sur l'organisme où se trouve le sillon buccal ,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Colpodidiidae sont de petite taille. Leur forme est allongée, ovoïde. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est  holotriche (c.à d. uniforme), avec une légère torsion des cinétides (groupe de cils) à l'extrémité antérieure. Leur région orale se situe dans le 1/3 moyen de la cellule, avec une cinétide parorale et trois polycinétides oraux dont la taille peut être réduite à un ou deux cinétosomes (organite intracellulaire d'où est issu un cil). Leur macronoyau est globuleux à ellipsoïde, pouvant se présenter sous la forme de deux nodules. Micronoyau, vacuole contractile et cytoprocte sont présents. Ils se nourrissant de bactéries et de flagellés[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Colpodidiidae sont de petite taille. Leur forme est allongée, ovoïde. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est  holotriche (c.à d. uniforme), avec une légère torsion des cinétides (groupe de cils) à l'extrémité antérieure. Leur région orale se situe dans le 1/3 moyen de la cellule, avec une cinétide parorale et trois polycinétides oraux dont la taille peut être réduite à un ou deux cinétosomes (organite intracellulaire d'où est issu un cil). Leur macronoyau est globuleux à ellipsoïde, pouvant se présenter sous la forme de deux nodules. Micronoyau, vacuole contractile et cytoprocte sont présents. Ils se nourrissant de bactéries et de flagellés.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Colpodidiidae vivent dans des habitats terrestres, en particulier les sols salins[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Colpodidiidae vivent dans des habitats terrestres, en particulier les sols salins.
 </t>
         </is>
       </c>
@@ -604,14 +622,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (18 juillet 2023)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (18 juillet 2023) :
 Apocolpodidium  Foissner, Agatha, &amp; Berger, 2002
 Colpodidium Wilbert, 1982 genre type
 Espèce type : Colpodidium caudatum Wilbert, 1982
 Pedohymena Foissner, 1995
-Selon Lynn (2008)[3] :
+Selon Lynn (2008) :
 Apocolpodidium Foissner, Agatha, &amp; Berger, 2002
 Colpodidium Wilbert, 1982
 Pedohymena Foissner, 1995
@@ -644,9 +664,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Colpodidiidae Foissner, 1995[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Colpodidiidae Foissner, 1995.
 </t>
         </is>
       </c>
